--- a/GyverPWM/examples/customPWM.xlsx
+++ b/GyverPWM/examples/customPWM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>Разрядность, бит</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Correct PWM</t>
   </si>
   <si>
-    <t>Пины 3, 5, 9, 10</t>
-  </si>
-  <si>
     <t>Макс. значение заполнения</t>
   </si>
   <si>
@@ -108,6 +105,12 @@
   </si>
   <si>
     <t>122 Гц</t>
+  </si>
+  <si>
+    <t>Пины D3, D5</t>
+  </si>
+  <si>
+    <t>Пины D9, D10</t>
   </si>
 </sst>
 </file>
@@ -162,16 +165,16 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,7 +459,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O6" sqref="A1:O6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,283 +469,285 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2">
+      <c r="B1" s="2"/>
+      <c r="C1" s="1">
         <v>4</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="1">
         <v>5</v>
       </c>
-      <c r="E1" s="2">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2">
+      <c r="E1" s="1">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1">
         <v>7</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="1">
         <v>8</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="1">
         <v>9</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="1">
         <v>10</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="1">
         <v>11</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="1">
         <v>12</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="1">
         <v>13</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="1">
         <v>14</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="1">
         <v>15</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>15</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>31</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>63</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>127</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>255</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>511</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>1023</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>2047</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>4095</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>8191</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>16383</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>32767</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>65535</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" s="2" t="s">
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" s="2" t="s">
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="2" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
